--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1205,23 @@
       </c>
       <c r="G10" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="11">
+        <v>700</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t>39,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,23 +1201,6 @@
       </c>
       <c r="G10" s="11">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11">
-        <v>500</v>
-      </c>
-      <c r="D11" s="11">
-        <v>700</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1205,23 @@
       </c>
       <c r="G10" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="11">
+        <v>700</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,14 @@
   </si>
   <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,6 +1229,40 @@
         <v>700</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="11">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2900</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3100</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,27 +292,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101,102,</t>
+  </si>
+  <si>
+    <t>103,104,105,106,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>34,36,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>37,38,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>39,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +759,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1018,7 +1029,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,59 +1063,59 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="11">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D2" s="11">
+        <v>220</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11">
         <v>180</v>
       </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11">
-        <v>160</v>
-      </c>
       <c r="D3" s="11">
-        <v>180</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>220</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
+      <c r="B4" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="11">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D4" s="11">
-        <v>180</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
+        <v>250</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1121,7 +1132,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1145,7 +1156,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -1164,10 +1175,10 @@
         <v>63</v>
       </c>
       <c r="C8" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D8" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -1176,7 +1187,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1196,7 +1207,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1220,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="11">
         <v>500</v>
@@ -1232,20 +1243,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="11">
-        <v>50</v>
-      </c>
-      <c r="D12" s="11">
-        <v>100</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <v>1500</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1254,13 +1265,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11">
-        <v>2900</v>
+        <v>50</v>
       </c>
       <c r="D13" s="11">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>59</v>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,13 +293,6 @@
   </si>
   <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101,102,</t>
-  </si>
-  <si>
-    <t>103,104,105,106,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1026,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1077,7 +1070,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1085,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1094,7 +1087,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1102,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1111,7 +1104,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1240,40 +1233,6 @@
         <v>700</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12">
-        <v>600</v>
-      </c>
-      <c r="D12">
-        <v>1500</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11">
-        <v>50</v>
-      </c>
-      <c r="D13" s="11">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,22 @@
   </si>
   <si>
     <t>40,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,111,112,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113,114,115,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107,108,109,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,13 +1037,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.25" customWidth="1"/>
     <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.25" customWidth="1"/>
     <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
@@ -1245,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1454,6 +1470,98 @@
       </c>
       <c r="H8" s="8">
         <v>2555555555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1601913599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1601913599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1601913599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1601913599</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1760,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1720,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -1737,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -1754,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2029,8 +2137,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2057,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>99999</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2071,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>99999</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2085,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>99999</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>99999</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>28,29,30,31,32,33,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +329,14 @@
   </si>
   <si>
     <t>107,108,109,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1086,7 +1090,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1094,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1103,7 +1107,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1111,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1120,7 +1124,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1131,10 +1135,10 @@
         <v>58</v>
       </c>
       <c r="C5" s="11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D5" s="11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -1145,13 +1149,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="11">
+        <v>400</v>
+      </c>
+      <c r="D6" s="11">
         <v>600</v>
-      </c>
-      <c r="D6" s="11">
-        <v>800</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1162,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1176,43 +1180,38 @@
       <c r="F7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="D8" s="11">
-        <v>60</v>
-      </c>
-      <c r="E8" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>1200</v>
-      </c>
-      <c r="D9">
-        <v>1500</v>
+      <c r="B9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11">
+        <v>80</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1220,35 +1219,91 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10">
-        <v>3600</v>
-      </c>
-      <c r="D10">
-        <v>3900</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="C10" s="11">
+        <v>50</v>
+      </c>
+      <c r="D10" s="11">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>1500</v>
+      </c>
+      <c r="D11">
+        <v>1800</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>3000</v>
+      </c>
+      <c r="D12">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4500</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4800</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="11">
         <v>500</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D14" s="11">
         <v>700</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1811,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1828,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -1845,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -1862,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2137,8 +2192,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +333,14 @@
   </si>
   <si>
     <t>124,125,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,48,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1108,7 +1112,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1125,7 +1129,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1142,7 +1146,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1167,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C6" s="11">
         <v>400</v>
@@ -1184,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1203,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1313,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="11">
         <v>500</v>
@@ -1325,6 +1329,24 @@
         <v>54</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1336,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1888,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>49</v>
@@ -1897,7 +1919,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1905,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>49</v>
@@ -1914,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1922,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>50</v>
@@ -1931,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1939,16 +1961,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,29 +86,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight4</t>
   </si>
   <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight3</t>
   </si>
   <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -246,97 +230,113 @@
     <t>20,60,5</t>
   </si>
   <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,100,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,47,47,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10,10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99,100,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,111,112,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113,114,115,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107,108,109,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117,118,119,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123,124,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,125,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +420,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +460,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,6 +490,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,25 +800,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -849,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -898,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1055,25 +1073,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1081,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1090,7 +1108,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1098,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1107,7 +1125,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1115,7 +1133,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1124,7 +1142,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11">
         <v>300</v>
@@ -1141,7 +1159,7 @@
         <v>500</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1149,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11">
         <v>400</v>
@@ -1158,7 +1176,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1166,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1175,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10"/>
@@ -1185,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1194,7 +1212,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
@@ -1211,7 +1229,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1219,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1228,7 +1246,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
@@ -1238,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>1500</v>
@@ -1247,7 +1265,7 @@
         <v>1800</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -1258,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>3000</v>
@@ -1267,7 +1285,7 @@
         <v>3300</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -1278,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11">
         <v>4500</v>
@@ -1287,7 +1305,7 @@
         <v>4800</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1295,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11">
         <v>500</v>
@@ -1304,7 +1322,7 @@
         <v>700</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1318,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1336,28 +1354,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1365,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1389,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6">
         <v>16</v>
@@ -1413,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6">
         <v>17</v>
@@ -1439,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1463,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1486,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1509,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1528,95 +1546,99 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1601913599</v>
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13">
+        <v>65</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1601913599</v>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13">
+        <v>66</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1601913599</v>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="13">
+        <v>67</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="13">
+        <v>68</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1601913599</v>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
+        <v>1606176000</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1606751999</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1837,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1829,19 +1851,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1849,84 +1871,84 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2279,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2344,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,22 +264,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35,42,43,44,45,47,47,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,27 +312,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>117,118,119,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124,125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>126,127,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,42,43,44,45,46,47,48,48,</t>
+    <t>128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,143,144,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,145,146,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,147,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +470,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,6 +512,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1120,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1129,7 +1142,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1137,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1146,7 +1159,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1171,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11">
         <v>400</v>
@@ -1188,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1207,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1317,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11">
         <v>500</v>
@@ -1334,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1356,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1661,6 +1674,102 @@
       </c>
       <c r="H12" s="14">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20">
+        <v>70</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20">
+        <v>71</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20">
+        <v>72</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="20">
+        <v>73</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1968,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1910,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>49</v>
@@ -1919,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1927,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>49</v>
@@ -1936,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1944,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>50</v>
@@ -1953,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1961,16 +2070,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,22 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,136,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34,36,143,144,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +325,22 @@
   </si>
   <si>
     <t>40,147,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -517,6 +517,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1133,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1150,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1369,18 +1372,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="6" customWidth="1"/>
@@ -1444,10 +1447,10 @@
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="7">
@@ -1468,13 +1471,13 @@
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -1494,7 +1497,7 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1518,7 +1521,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1541,7 +1544,7 @@
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1564,7 +1567,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1587,13 +1590,13 @@
       <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>65</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="14"/>
@@ -1611,13 +1614,13 @@
       <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>66</v>
       </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
         <v>1</v>
       </c>
       <c r="F10" s="14"/>
@@ -1635,13 +1638,13 @@
       <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>67</v>
       </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="14"/>
@@ -1659,13 +1662,13 @@
       <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>68</v>
       </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <v>5</v>
       </c>
       <c r="F12" s="14"/>
@@ -1770,6 +1773,102 @@
       </c>
       <c r="H16" s="20">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15">
+        <v>74</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15">
+        <v>75</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15">
+        <v>76</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="15">
+        <v>77</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -1967,8 +2066,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>49</v>
@@ -2036,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>49</v>
@@ -2053,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>50</v>
@@ -2070,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>70</v>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -348,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +412,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +442,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +483,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1374,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1792,11 +1808,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1608566399</v>
+      <c r="G17" s="23">
+        <v>1608595200</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1816,11 +1832,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1608566399</v>
+      <c r="G18" s="23">
+        <v>1608595200</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1840,11 +1856,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1608566399</v>
+      <c r="G19" s="23">
+        <v>1608595200</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1864,11 +1880,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="15">
-        <v>1607990400</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1608566399</v>
+      <c r="G20" s="23">
+        <v>1608595200</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1609171199</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +2082,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -447,7 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,10 +1809,10 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H17" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,10 +1833,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H18" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1857,10 +1857,10 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H19" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="23">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H20" s="23">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -447,7 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,10 +1809,10 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="23">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H17" s="23">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1833,10 +1833,10 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="23">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H18" s="23">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1857,10 +1857,10 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="23">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H19" s="23">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="23">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H20" s="23">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -336,7 +336,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,167,</t>
+    <t>166,167,168,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,7 +420,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,13 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +477,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,10 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,6 +515,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,10 +532,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1391,7 +1388,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1513,7 +1510,7 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1537,7 +1534,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1560,7 +1557,7 @@
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="17">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1583,7 +1580,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1599,119 +1596,119 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="19">
         <v>65</v>
       </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="19">
         <v>66</v>
       </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="19">
         <v>67</v>
       </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="19">
         <v>68</v>
       </c>
-      <c r="D12" s="14">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="20">
         <v>70</v>
       </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="D13" s="19">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="20">
         <v>1607385600</v>
       </c>
@@ -1719,23 +1716,23 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="20">
         <v>71</v>
       </c>
-      <c r="D14" s="21">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21"/>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19"/>
       <c r="G14" s="20">
         <v>1607385600</v>
       </c>
@@ -1743,23 +1740,23 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="20">
         <v>72</v>
       </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19"/>
       <c r="G15" s="20">
         <v>1607385600</v>
       </c>
@@ -1767,23 +1764,23 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
+    <row r="16" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="20">
         <v>73</v>
       </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
         <v>5</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="20">
         <v>1607385600</v>
       </c>
@@ -1792,99 +1789,99 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="22">
         <v>74</v>
       </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="23">
-        <v>1609804800</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1610380799</v>
+      <c r="D17" s="23">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24">
+        <v>1610409600</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="22">
         <v>75</v>
       </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="23">
-        <v>1609804800</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1610380799</v>
+      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24">
+        <v>1610409600</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="22">
         <v>76</v>
       </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="23">
-        <v>1609804800</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1610380799</v>
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24">
+        <v>1610409600</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="22">
         <v>77</v>
       </c>
-      <c r="D20" s="14">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="23">
+        <v>2</v>
+      </c>
+      <c r="E20" s="23">
         <v>5</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="23">
-        <v>1609804800</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1610380799</v>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24">
+        <v>1610409600</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1610985599</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2080,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2130,70 +2127,70 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>71</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,15 +412,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +531,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,7 +1387,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1806,10 +1805,10 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="24">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H17" s="24">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1830,10 +1829,10 @@
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="24">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H18" s="24">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1854,10 +1853,10 @@
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H19" s="24">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1878,10 +1877,10 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="24">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H20" s="24">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -413,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +470,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,9 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1387,7 +1378,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1804,11 +1795,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H17" s="24">
-        <v>1611590399</v>
+      <c r="G17" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1828,11 +1819,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1611590399</v>
+      <c r="G18" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1852,11 +1843,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="23"/>
-      <c r="G19" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H19" s="24">
-        <v>1611590399</v>
+      <c r="G19" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1876,11 +1867,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1611590399</v>
+      <c r="G20" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,10 +1796,10 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H17" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1820,10 +1820,10 @@
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H18" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1844,10 +1844,10 @@
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H19" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1868,10 +1868,10 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H20" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +84,6 @@
   <si>
     <t>min_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>create_weight2</t>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -205,10 +196,6 @@
   </si>
   <si>
     <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,80 +211,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,100,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,47,47,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,143,144,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,145,146,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,147,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>30,40,30</t>
   </si>
   <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20,60,5</t>
   </si>
   <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99,100,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>create_weight3</t>
   </si>
   <si>
     <t>大</t>
@@ -308,39 +413,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
     <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,143,144,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,145,146,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,147,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +528,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,7 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,14 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,13 +638,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,25 +962,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -890,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1080,292 +1219,839 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.25" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.25" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="11">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="11">
         <v>180</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>220</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11">
         <v>180</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>220</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="11">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>250</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
         <v>300</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>600</v>
       </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="11">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11">
+        <v>79</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11">
         <v>280</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>300</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>80</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="11">
+        <v>81</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="11">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
         <v>1500</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1800</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
         <v>3000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3300</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11">
+        <v>84</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11">
         <v>4500</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>4800</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="11">
+        <v>85</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>700</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="11">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11">
         <v>2000</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>4000</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="24">
+        <v>200</v>
+      </c>
+      <c r="E18" s="24">
+        <v>300</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="24">
+        <v>200</v>
+      </c>
+      <c r="E19" s="24">
+        <v>300</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="24">
+        <v>200</v>
+      </c>
+      <c r="E20" s="24">
+        <v>300</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="24">
+        <v>200</v>
+      </c>
+      <c r="E21" s="24">
+        <v>300</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="24">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="27">
+        <v>200</v>
+      </c>
+      <c r="E23" s="27">
+        <v>300</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="27">
+        <v>200</v>
+      </c>
+      <c r="E24" s="27">
+        <v>300</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="27">
+        <v>200</v>
+      </c>
+      <c r="E25" s="27">
+        <v>300</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="27">
+        <v>200</v>
+      </c>
+      <c r="E26" s="27">
+        <v>300</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="29">
+        <v>200</v>
+      </c>
+      <c r="E28" s="29">
+        <v>300</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="29">
+        <v>200</v>
+      </c>
+      <c r="E29" s="29">
+        <v>300</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="29">
+        <v>200</v>
+      </c>
+      <c r="E30" s="29">
+        <v>300</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="29">
+        <v>200</v>
+      </c>
+      <c r="E31" s="29">
+        <v>300</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="22">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="22">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="20"/>
+      <c r="F33" s="32"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="20"/>
+      <c r="F34" s="32"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="20"/>
+      <c r="F35" s="32"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1375,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1395,28 +2081,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1424,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1448,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8">
         <v>16</v>
@@ -1472,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8">
         <v>17</v>
@@ -1498,9 +2184,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="17">
+        <v>39</v>
+      </c>
+      <c r="C5" s="13">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1522,9 +2208,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="17">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1545,9 +2231,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="17">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1568,9 +2254,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="17">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1586,293 +2272,267 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15">
         <v>65</v>
       </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="15">
         <v>66</v>
       </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15">
         <v>67</v>
       </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19">
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15">
         <v>68</v>
       </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="15">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="B13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16">
         <v>70</v>
       </c>
-      <c r="D13" s="19">
-        <v>2</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20">
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="B14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="16">
         <v>71</v>
       </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20">
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="B15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="16">
         <v>72</v>
       </c>
-      <c r="D15" s="19">
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="16">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="16">
         <v>73</v>
       </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
         <v>5</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="16">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="22">
-        <v>74</v>
-      </c>
-      <c r="D17" s="23">
-        <v>2</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1612799999</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="22">
-        <v>75</v>
-      </c>
-      <c r="D18" s="23">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1612799999</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="22">
-        <v>76</v>
-      </c>
-      <c r="D19" s="23">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1612799999</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="22">
-        <v>77</v>
-      </c>
-      <c r="D20" s="23">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23">
-        <v>5</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="20">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1612799999</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2070,13 +2730,13 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2084,117 +2744,123 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>67</v>
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>68</v>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>69</v>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>71</v>
+      <c r="B6" s="20"/>
+      <c r="C6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -2534,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2599,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1636,10 +1636,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J18" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1664,10 +1664,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J19" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1692,10 +1692,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J20" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1720,10 +1720,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J21" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1748,10 +1748,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J22" s="26">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,8 +424,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
   </si>
   <si>
     <t>161,162,163,164,165,166,</t>
@@ -436,28 +455,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼boss2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
   </si>
 </sst>
 </file>
@@ -535,7 +537,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,19 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +588,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,32 +628,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,7 +1202,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1557,7 @@
       <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="11">
@@ -1599,7 +1579,7 @@
       <c r="B17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="11">
@@ -1619,10 +1599,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1636,10 +1616,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J18" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1647,10 +1627,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1664,10 +1644,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J19" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1675,10 +1655,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1692,10 +1672,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J20" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1703,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1720,10 +1700,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J21" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1731,10 +1711,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1748,309 +1728,289 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J22" s="26">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="C23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="22">
         <v>200</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="22">
         <v>300</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="17">
+      <c r="I23" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="22">
         <v>200</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="22">
         <v>300</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="17">
+      <c r="I24" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="25" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="22">
         <v>200</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="22">
         <v>300</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="17">
+      <c r="I25" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="27">
+      <c r="C26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="22">
         <v>200</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="22">
         <v>300</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="17">
+      <c r="I26" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+    <row r="27" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="27">
+      <c r="C27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="22">
         <v>3000</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="22">
         <v>3000</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="17">
+      <c r="I27" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="22">
         <v>200</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="22">
         <v>300</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+    <row r="29" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="29">
+      <c r="C29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="22">
         <v>200</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="22">
         <v>300</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="22">
         <v>200</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="22">
         <v>300</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+    <row r="31" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="29">
+      <c r="C31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="22">
         <v>200</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="22">
         <v>300</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="29">
+      <c r="C32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="22">
         <v>3000</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="22">
         <v>3000</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="22">
+      <c r="I32" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C33" s="20"/>
-      <c r="F33" s="32"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="20"/>
-      <c r="F34" s="32"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C35" s="20"/>
-      <c r="F35" s="32"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+    <row r="33" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="19"/>
+      <c r="F33" s="23"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="19"/>
+      <c r="F34" s="23"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="19"/>
+      <c r="F35" s="23"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2497,7 +2457,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2507,7 +2467,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -2517,7 +2477,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -2527,7 +2487,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2778,7 +2738,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
         <v>89</v>
       </c>
@@ -2793,7 +2753,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
         <v>89</v>
       </c>
@@ -2808,7 +2768,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
         <v>94</v>
       </c>
@@ -2823,7 +2783,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>97</v>
       </c>
@@ -2836,28 +2796,28 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1616,10 +1616,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J18" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1644,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J19" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1672,10 +1672,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J20" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1700,10 +1700,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J21" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1728,10 +1728,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J22" s="26">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,125 +219,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,100,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,47,47,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
     <t>18,19,20,21,22,23,24,25,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99,100,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,143,144,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,145,146,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,147,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,121 +434,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一网打尽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
+    <t>34,36,34,36,34,36,143,144,190,191,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,37,38,37,38,145,146,192,193,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40,40,147,194,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1201,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1239,13 +1227,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1253,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1265,7 +1253,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1275,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1287,7 +1275,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1297,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1309,7 +1297,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1319,10 +1307,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11">
         <v>300</v>
@@ -1339,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1359,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1371,7 +1359,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -1380,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1392,7 +1380,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1402,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1414,7 +1402,7 @@
         <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1424,10 +1412,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1436,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -1445,10 +1433,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1457,7 +1445,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1468,10 +1456,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -1480,7 +1468,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1491,10 +1479,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1503,7 +1491,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1513,10 +1501,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1525,7 +1513,7 @@
         <v>700</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1535,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1547,7 +1535,7 @@
         <v>4000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1555,10 +1543,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1567,7 +1555,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1577,10 +1565,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1589,7 +1577,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1599,10 +1587,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1611,15 +1599,15 @@
         <v>300</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J18" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1627,10 +1615,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1639,15 +1627,15 @@
         <v>300</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J19" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,10 +1643,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1667,15 +1655,15 @@
         <v>300</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J20" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1683,10 +1671,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1695,15 +1683,15 @@
         <v>300</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J21" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1723,15 +1711,15 @@
         <v>3000</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J22" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1739,10 +1727,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1751,7 +1739,7 @@
         <v>300</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="21">
         <v>1613433600</v>
@@ -1765,10 +1753,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1777,7 +1765,7 @@
         <v>300</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="21">
         <v>1613433600</v>
@@ -1791,10 +1779,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1803,7 +1791,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="21">
         <v>1613433600</v>
@@ -1817,10 +1805,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1829,7 +1817,7 @@
         <v>300</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="21">
         <v>1613433600</v>
@@ -1843,10 +1831,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1855,7 +1843,7 @@
         <v>3000</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="21">
         <v>1613433600</v>
@@ -1869,10 +1857,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1881,7 +1869,7 @@
         <v>300</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="21">
         <v>1614038400</v>
@@ -1895,10 +1883,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1907,7 +1895,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="21">
         <v>1614038400</v>
@@ -1921,10 +1909,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1933,7 +1921,7 @@
         <v>300</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="21">
         <v>1614038400</v>
@@ -1947,10 +1935,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1959,7 +1947,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="21">
         <v>1614038400</v>
@@ -1973,10 +1961,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -1985,7 +1973,7 @@
         <v>3000</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="21">
         <v>1614038400</v>
@@ -2740,13 +2728,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,13 +2743,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2770,13 +2758,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,13 +2773,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
@@ -258,54 +262,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>37,38,37,38,37,38,145,146,192,193,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
+    <t>34,36,34,36,34,36,143,144,190,191,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,112 +442,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
+    <t>40,40,40,147,194,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,27 +450,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,34,36,34,36,143,144,190,191,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,37,38,37,38,145,146,192,193,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,40,40,147,194,</t>
+    <t>55,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1194,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,10 +1231,10 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>68</v>
@@ -1244,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1253,7 +1257,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1266,7 +1270,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1275,7 +1279,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1285,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1297,7 +1301,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1307,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="11">
         <v>300</v>
@@ -1327,10 +1331,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1347,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>58</v>
@@ -1359,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -1368,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1380,7 +1384,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1390,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1402,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1412,10 +1416,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1424,7 +1428,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -1435,8 +1439,8 @@
       <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1445,7 +1449,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1459,7 +1463,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -1468,7 +1472,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1482,7 +1486,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1491,7 +1495,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1501,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1513,7 +1517,7 @@
         <v>700</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1523,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>59</v>
@@ -1535,7 +1539,7 @@
         <v>4000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1547,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>60</v>
@@ -1565,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>62</v>
@@ -1587,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1599,15 +1603,15 @@
         <v>300</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J18" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1615,10 +1619,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1627,15 +1631,15 @@
         <v>300</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J19" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1643,10 +1647,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1655,15 +1659,15 @@
         <v>300</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J20" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1671,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1683,15 +1687,15 @@
         <v>300</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J21" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1699,27 +1703,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D22" s="24">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="24">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J22" s="26">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1730,7 +1734,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1739,7 +1743,7 @@
         <v>300</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" s="21">
         <v>1613433600</v>
@@ -1756,7 +1760,7 @@
         <v>64</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1765,7 +1769,7 @@
         <v>300</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" s="21">
         <v>1613433600</v>
@@ -1782,7 +1786,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1791,7 +1795,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" s="21">
         <v>1613433600</v>
@@ -1808,7 +1812,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1817,7 +1821,7 @@
         <v>300</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" s="21">
         <v>1613433600</v>
@@ -1834,7 +1838,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1843,7 +1847,7 @@
         <v>3000</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" s="21">
         <v>1613433600</v>
@@ -1860,7 +1864,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1869,7 +1873,7 @@
         <v>300</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" s="21">
         <v>1614038400</v>
@@ -1886,7 +1890,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1895,7 +1899,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" s="21">
         <v>1614038400</v>
@@ -1912,7 +1916,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1921,7 +1925,7 @@
         <v>300</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="21">
         <v>1614038400</v>
@@ -1938,7 +1942,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1947,7 +1951,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" s="21">
         <v>1614038400</v>
@@ -1964,7 +1968,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -1973,7 +1977,7 @@
         <v>3000</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" s="21">
         <v>1614038400</v>
@@ -2728,13 +2732,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2743,13 +2747,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2758,13 +2762,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2773,13 +2777,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1608,10 +1608,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J18" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1636,10 +1636,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J19" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1664,10 +1664,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J20" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1692,10 +1692,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J21" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1720,10 +1720,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J22" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -219,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
@@ -426,31 +422,35 @@
     <t>常规活动鱼boss</t>
   </si>
   <si>
-    <t>37,38,37,38,37,38,145,146,192,193,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,34,36,34,36,143,144,190,191,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40,40,40,147,194,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196,197,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,201,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1231,13 +1231,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1245,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1257,7 +1257,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1267,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1279,7 +1279,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1289,10 +1289,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1301,7 +1301,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D5" s="11">
         <v>300</v>
@@ -1331,10 +1331,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1351,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1363,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
     </row>
@@ -1372,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1384,7 +1384,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1406,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1416,10 +1416,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1428,7 +1428,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
     </row>
@@ -1437,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1449,7 +1449,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1460,10 +1460,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -1472,7 +1472,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1483,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1495,7 +1495,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1505,10 +1505,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1517,7 +1517,7 @@
         <v>700</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1527,10 +1527,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1539,7 +1539,7 @@
         <v>4000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1547,10 +1547,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1559,7 +1559,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1569,10 +1569,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1581,7 +1581,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1591,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1603,15 +1603,15 @@
         <v>300</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J18" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1631,15 +1631,15 @@
         <v>300</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J19" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1647,10 +1647,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1659,15 +1659,15 @@
         <v>300</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J20" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1675,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1687,15 +1687,15 @@
         <v>300</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J21" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1703,10 +1703,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="24">
         <v>2400</v>
@@ -1715,15 +1715,15 @@
         <v>2400</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J22" s="26">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1731,10 +1731,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1743,7 +1743,7 @@
         <v>300</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" s="21">
         <v>1613433600</v>
@@ -1757,10 +1757,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1769,7 +1769,7 @@
         <v>300</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="21">
         <v>1613433600</v>
@@ -1783,10 +1783,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1795,7 +1795,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="21">
         <v>1613433600</v>
@@ -1809,10 +1809,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1821,7 +1821,7 @@
         <v>300</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="21">
         <v>1613433600</v>
@@ -1835,10 +1835,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1847,7 +1847,7 @@
         <v>3000</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" s="21">
         <v>1613433600</v>
@@ -1861,10 +1861,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1873,7 +1873,7 @@
         <v>300</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="21">
         <v>1614038400</v>
@@ -1887,10 +1887,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1899,7 +1899,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="21">
         <v>1614038400</v>
@@ -1913,10 +1913,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1925,7 +1925,7 @@
         <v>300</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" s="21">
         <v>1614038400</v>
@@ -1939,10 +1939,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1951,7 +1951,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="21">
         <v>1614038400</v>
@@ -1965,10 +1965,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -1977,7 +1977,7 @@
         <v>3000</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="21">
         <v>1614038400</v>
@@ -2732,13 +2732,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,13 +2747,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2762,13 +2762,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2777,13 +2777,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1608,10 +1608,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J18" s="26">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1636,10 +1636,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J19" s="26">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1664,10 +1664,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J20" s="26">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1692,10 +1692,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J21" s="26">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1720,10 +1720,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J22" s="26">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196,197,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,201,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>188,188,188,189,189,189,189,189,189,189,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,179 +455,6 @@
   </si>
   <si>
     <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>196,197,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>198,199,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,201,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1234,10 +1238,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1245,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1267,10 +1271,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1289,10 +1293,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1311,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D5" s="11">
         <v>300</v>
@@ -1331,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>52</v>
@@ -1351,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>57</v>
@@ -1372,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1394,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>49</v>
@@ -1416,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>49</v>
@@ -1437,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>1500</v>
@@ -1460,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>51</v>
@@ -1483,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>51</v>
@@ -1505,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>53</v>
@@ -1527,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>58</v>
@@ -1547,10 +1551,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1559,7 +1563,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -1569,10 +1573,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1581,7 +1585,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1591,10 +1595,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1619,10 +1623,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1647,10 +1651,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1675,10 +1679,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1703,10 +1707,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D22" s="24">
         <v>2400</v>
@@ -1727,14 +1731,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D23" s="22">
         <v>200</v>
@@ -1753,14 +1757,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D24" s="22">
         <v>200</v>
@@ -1779,14 +1783,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25" s="22">
         <v>200</v>
@@ -1805,14 +1809,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26" s="22">
         <v>200</v>
@@ -1831,14 +1835,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D27" s="22">
         <v>3000</v>
@@ -1857,14 +1861,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D28" s="22">
         <v>200</v>
@@ -1883,14 +1887,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D29" s="22">
         <v>200</v>
@@ -1909,14 +1913,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D30" s="22">
         <v>200</v>
@@ -1935,14 +1939,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" s="22">
         <v>200</v>
@@ -1961,14 +1965,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32" s="22">
         <v>3000</v>
@@ -2732,13 +2736,13 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,13 +2751,13 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2762,13 +2766,13 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2777,13 +2781,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -300,11 +300,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,13 +317,6 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -340,15 +333,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -362,35 +385,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,18 +406,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,32 +421,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,17 +465,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,13 +502,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,49 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,19 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,37 +652,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,15 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -745,38 +729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +752,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -807,25 +794,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,138 +827,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -981,23 +974,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1009,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1616,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2027,10 +2020,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J18" s="8">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2055,10 +2048,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J19" s="8">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2083,10 +2076,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J20" s="8">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2111,10 +2104,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J21" s="8">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2139,10 +2132,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J22" s="8">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -332,6 +332,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -339,7 +352,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -347,6 +396,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -362,81 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,35 +474,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,13 +502,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,37 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,43 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +574,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +610,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,49 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +712,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -735,6 +750,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,39 +800,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -793,32 +808,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,138 +827,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I19" sqref="I19:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2020,10 +2020,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J18" s="8">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2048,10 +2048,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J19" s="8">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2076,10 +2076,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J20" s="8">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2104,10 +2104,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J21" s="8">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2132,10 +2132,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J22" s="8">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -299,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -332,19 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -359,12 +346,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -372,6 +364,14 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,36 +383,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -427,8 +405,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -436,7 +428,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -459,6 +459,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,13 +476,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,13 +502,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,79 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,25 +640,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,31 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,16 +712,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,32 +744,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +791,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -811,14 +811,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,138 +827,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J22"/>
+      <selection activeCell="I18" sqref="I18:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2020,10 +2020,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J18" s="8">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2048,10 +2048,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J19" s="8">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2076,10 +2076,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J20" s="8">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2104,10 +2104,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J21" s="8">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2132,10 +2132,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J22" s="8">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>185,186,187</t>
+  </si>
+  <si>
+    <t>202,</t>
   </si>
 </sst>
 </file>
@@ -299,12 +302,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +320,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -333,14 +343,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +369,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -368,7 +424,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -376,14 +432,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +447,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -406,30 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,37 +481,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,7 +512,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,25 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,31 +644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,97 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,21 +722,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -743,8 +738,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -765,11 +762,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,33 +813,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,140 +837,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -974,23 +984,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1002,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1343,28 +1356,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1410,10 +1423,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1459,10 +1472,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1516,10 +1529,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1565,10 +1578,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1608,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="B36:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2020,10 +2033,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J18" s="8">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2048,10 +2061,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J19" s="8">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2076,10 +2089,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J20" s="8">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2104,10 +2117,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J21" s="8">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2131,11 +2144,11 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="8">
-        <v>1623110400</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1623686399</v>
+      <c r="I22" s="9">
+        <v>1623167999</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1623254399</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2157,10 +2170,10 @@
       <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2183,10 +2196,10 @@
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2209,10 +2222,10 @@
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2235,10 +2248,10 @@
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2261,10 +2274,10 @@
       <c r="F27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="10">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="10">
         <v>1614009599</v>
       </c>
     </row>
@@ -2287,10 +2300,10 @@
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2313,10 +2326,10 @@
       <c r="F29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2339,10 +2352,10 @@
       <c r="F30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2365,10 +2378,10 @@
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="10">
         <v>1614614399</v>
       </c>
     </row>
@@ -2391,30 +2404,52 @@
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="10">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="10">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="3:10">
-      <c r="C33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+    <row r="33" customFormat="1" ht="13" customHeight="1" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="8">
+        <v>1624320000</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1624895999</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">
       <c r="C34" s="6"/>
       <c r="F34" s="7"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" spans="3:10">
       <c r="C35" s="6"/>
       <c r="F35" s="7"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2434,470 +2469,470 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="13.125" style="19" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="18" style="20" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="13.125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="18" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="23">
         <v>15</v>
       </c>
-      <c r="D2" s="22">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="D2" s="23">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20">
+      <c r="F2" s="23"/>
+      <c r="G2" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="21">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="21">
         <v>16</v>
       </c>
-      <c r="D3" s="20">
-        <v>2</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20">
+      <c r="D3" s="21">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="21">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>17</v>
       </c>
-      <c r="D4" s="20">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="D4" s="21">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
         <v>1200</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="22">
-        <v>2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20">
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>22</v>
       </c>
-      <c r="D6" s="22">
-        <v>2</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>23</v>
       </c>
-      <c r="D7" s="22">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="21">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>24</v>
       </c>
-      <c r="D8" s="22">
-        <v>2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="21">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:8">
-      <c r="A9" s="18">
+    <row r="9" s="19" customFormat="1" spans="1:8">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="24">
         <v>65</v>
       </c>
-      <c r="D9" s="23">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23">
+      <c r="D9" s="24">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:8">
-      <c r="A10" s="18">
+    <row r="10" s="19" customFormat="1" spans="1:8">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <v>66</v>
       </c>
-      <c r="D10" s="23">
-        <v>2</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23">
+      <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:8">
-      <c r="A11" s="18">
+    <row r="11" s="19" customFormat="1" spans="1:8">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>67</v>
       </c>
-      <c r="D11" s="23">
-        <v>2</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23">
+      <c r="D11" s="24">
+        <v>2</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="1" spans="1:8">
-      <c r="A12" s="18">
+    <row r="12" s="19" customFormat="1" spans="1:8">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>68</v>
       </c>
-      <c r="D12" s="23">
-        <v>2</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="E12" s="24">
         <v>5</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="24">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:8">
-      <c r="A13" s="18">
+    <row r="13" s="19" customFormat="1" spans="1:8">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="15">
         <v>70</v>
       </c>
-      <c r="D13" s="23">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="14">
+      <c r="D13" s="24">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:8">
-      <c r="A14" s="18">
+    <row r="14" s="19" customFormat="1" spans="1:8">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>71</v>
       </c>
-      <c r="D14" s="23">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="14">
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:8">
-      <c r="A15" s="18">
+    <row r="15" s="19" customFormat="1" spans="1:8">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>72</v>
       </c>
-      <c r="D15" s="23">
-        <v>2</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="14">
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:8">
-      <c r="A16" s="18">
+    <row r="16" s="19" customFormat="1" spans="1:8">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>73</v>
       </c>
-      <c r="D16" s="23">
-        <v>2</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24">
         <v>5</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="14">
+      <c r="F16" s="24"/>
+      <c r="G16" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="15">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2917,14 +2952,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2956,17 +2991,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3100,162 +3135,162 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="12"/>
-    <col min="2" max="2" width="40.5" style="12" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="12"/>
+    <col min="1" max="1" width="10.75" style="13"/>
+    <col min="2" max="2" width="40.5" style="13" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -3326,17 +3361,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3484,62 +3519,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="12"/>
+    <col min="1" max="16384" width="10.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>40</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>30</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>10</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>25</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3561,10 +3596,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3626,10 +3661,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -302,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -356,68 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,6 +380,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -453,39 +467,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,43 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +632,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,43 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,43 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,26 +738,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,11 +769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,163 +810,165 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -984,10 +984,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1621,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="B36:C37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2033,10 +2033,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J18" s="8">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2061,10 +2061,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J19" s="8">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2089,10 +2089,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J20" s="8">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2117,10 +2117,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J21" s="8">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2144,11 +2144,11 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="9">
-        <v>1623167999</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1623254399</v>
+      <c r="I22" s="8">
+        <v>1624924800</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1625500799</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2170,10 +2170,10 @@
       <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2196,10 +2196,10 @@
       <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2222,10 +2222,10 @@
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2248,10 +2248,10 @@
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2274,10 +2274,10 @@
       <c r="F27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2300,10 +2300,10 @@
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2326,10 +2326,10 @@
       <c r="F29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2352,10 +2352,10 @@
       <c r="F30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2378,10 +2378,10 @@
       <c r="F31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2404,10 +2404,10 @@
       <c r="F32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="8">
-        <v>1624320000</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1624895999</v>
+      <c r="I33" s="10">
+        <v>1623167999</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1623254399</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -343,13 +343,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -358,7 +351,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,35 +425,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,36 +467,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,33 +484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,13 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,31 +524,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,25 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,25 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,31 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,15 +745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -769,6 +760,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,15 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +809,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,7 +837,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,129 +846,129 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2033,10 +2033,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J18" s="8">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2061,10 +2061,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J19" s="8">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2089,10 +2089,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J20" s="8">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2117,10 +2117,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J21" s="8">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2145,10 +2145,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J22" s="8">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -349,21 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -371,25 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +371,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,7 +433,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,15 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,37 +471,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,13 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +554,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +590,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,133 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +745,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -756,6 +771,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,32 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -821,14 +821,14 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,138 +837,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1622,7 +1622,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2033,10 +2033,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J18" s="8">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2061,10 +2061,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J19" s="8">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2089,10 +2089,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J20" s="8">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2117,10 +2117,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J21" s="8">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2145,10 +2145,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J22" s="8">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -300,14 +305,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,7 +318,7 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -345,22 +344,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,129 +353,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,194 +385,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -720,255 +409,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -993,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1010,80 +457,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,21 +744,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1405,24 +808,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1438,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1446,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1455,23 +857,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1487,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1495,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1503,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1512,23 +913,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1544,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1552,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1561,23 +961,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1593,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1601,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1610,22 +1009,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="80.25" customWidth="1"/>
@@ -1635,7 +1033,7 @@
     <col min="10" max="10" width="17.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1686,10 +1084,8 @@
       <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1708,10 +1104,8 @@
       <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1730,10 +1124,8 @@
       <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1753,7 +1145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1773,7 +1165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1793,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1812,10 +1204,8 @@
       <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1834,10 +1224,8 @@
       <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1857,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1880,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1903,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1922,10 +1310,8 @@
       <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:10">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1944,10 +1330,8 @@
       <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1967,7 +1351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1986,10 +1370,8 @@
       <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:10">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2008,10 +1390,8 @@
       <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:10">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2033,13 +1413,13 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J18" s="8">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2061,13 +1441,13 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J19" s="8">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2089,13 +1469,13 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J20" s="8">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2117,13 +1497,13 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J21" s="8">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2145,13 +1525,13 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J22" s="8">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2177,7 +1557,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2203,7 +1583,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2229,7 +1609,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2255,7 +1635,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2281,7 +1661,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2307,7 +1687,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2333,7 +1713,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2359,7 +1739,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:10">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2385,7 +1765,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2411,7 +1791,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="13" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2439,35 +1819,34 @@
         <v>1623254399</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
       <c r="F34" s="7"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="16.5" spans="3:10">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C35" s="6"/>
       <c r="F35" s="7"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="2" width="13.125" style="20" customWidth="1"/>
@@ -2479,7 +1858,7 @@
     <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +1884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2529,7 +1908,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -2553,7 +1932,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -2579,7 +1958,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2603,7 +1982,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2626,7 +2005,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2649,7 +2028,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2672,7 +2051,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2696,7 +2075,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" spans="1:8">
+    <row r="10" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2720,7 +2099,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2744,7 +2123,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="1:8">
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2768,7 +2147,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" spans="1:8">
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2792,7 +2171,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" spans="1:8">
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2816,7 +2195,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2840,7 +2219,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -2864,7 +2243,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="15"/>
@@ -2874,7 +2253,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="15"/>
@@ -2884,7 +2263,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="15"/>
@@ -2894,7 +2273,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="11"/>
@@ -2904,7 +2283,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="11"/>
@@ -2914,7 +2293,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="11"/>
@@ -2924,7 +2303,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="11"/>
@@ -2935,24 +2314,23 @@
       <c r="H23" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +2341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2975,23 +2353,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +2382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3019,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3033,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3047,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3061,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3075,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3089,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3103,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3118,22 +2495,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="13"/>
     <col min="2" max="2" width="40.5" style="13" customWidth="1"/>
@@ -3142,7 +2518,7 @@
     <col min="6" max="16384" width="10.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -3159,7 +2535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3174,7 +2550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3189,7 +2565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3204,7 +2580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3219,7 +2595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3234,134 +2610,133 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="6"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +2750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3389,7 +2764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3403,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3417,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3431,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3445,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3459,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3473,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3487,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3502,27 +2877,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +2910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3550,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3564,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3579,23 +2953,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +2976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3611,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3619,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3627,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3635,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3644,23 +3017,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3668,7 +3040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3676,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3684,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3693,7 +3065,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I16:I17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1413,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J18" s="8">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J19" s="8">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,10 +1469,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J20" s="8">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J21" s="8">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1413,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J18" s="8">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J19" s="8">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,10 +1469,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J20" s="8">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J21" s="8">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1525,10 +1525,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="J22" s="8">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J22"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1416,7 @@
         <v>1628553600</v>
       </c>
       <c r="J18" s="8">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>1628553600</v>
       </c>
       <c r="J19" s="8">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>1628553600</v>
       </c>
       <c r="J20" s="8">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1500,7 +1500,7 @@
         <v>1628553600</v>
       </c>
       <c r="J21" s="8">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>1628553600</v>
       </c>
       <c r="J22" s="8">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1413,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1628553600</v>
+        <v>1629763200</v>
       </c>
       <c r="J18" s="8">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1628553600</v>
+        <v>1629763200</v>
       </c>
       <c r="J19" s="8">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,10 +1469,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1628553600</v>
+        <v>1629763200</v>
       </c>
       <c r="J20" s="8">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,10 +1497,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1628553600</v>
+        <v>1629763200</v>
       </c>
       <c r="J21" s="8">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1525,10 +1525,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1628553600</v>
+        <v>1629763200</v>
       </c>
       <c r="J22" s="8">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -324,6 +324,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -331,12 +332,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,17 +347,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1020,7 +1026,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J22"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J18" s="8">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1441,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J19" s="8">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1469,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J20" s="8">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J21" s="8">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1525,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J22" s="8">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J18" s="8">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J19" s="8">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J20" s="8">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J21" s="8">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J22" s="8">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J22"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J18" s="8">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J19" s="8">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J20" s="8">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J21" s="8">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J22" s="8">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J18" s="8">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J19" s="8">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J20" s="8">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J21" s="8">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J22" s="8">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J18" s="8">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J19" s="8">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J20" s="8">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J21" s="8">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J22" s="8">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1025,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
       <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J18" s="8">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J19" s="8">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J20" s="8">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J21" s="8">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J22" s="8">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J18" s="8">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J19" s="8">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J20" s="8">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J21" s="8">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J22" s="8">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J18" s="8">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J19" s="8">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J20" s="8">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J21" s="8">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J22" s="8">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_3.xlsx
+++ b/config_Release/fish_3d_yutu_random_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,10 +1419,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J18" s="8">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1447,10 +1447,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J19" s="8">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J20" s="8">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,10 +1503,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J21" s="8">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1531,10 +1531,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="8">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J22" s="8">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
